--- a/biology/Zoologie/Gadopsis_marmoratus/Gadopsis_marmoratus.xlsx
+++ b/biology/Zoologie/Gadopsis_marmoratus/Gadopsis_marmoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Gadopsis marmoratus est un poisson d'eau douce du sud-est de l'Australie et de la Tasmanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gadopsis marmoratus mesure habituellement jusqu'à 45 cm (max 60 cm). Sa couleur est très variable allant du vert pâle au noir en passant par le brun. Il présente généralement des marbrures avec de larges taches sombres. Le ventre est jaune pâle, bleu ou gris violacé.
 </t>
@@ -542,7 +556,9 @@
           <t>Mœurs, distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un poisson aux mœurs nocturnes se nourrissant d'insectes, de crustacés et, occasionnellement, d'autres poissons.
 Malgré la détérioration de son habitat qui réduit sa zone de répartition, il est fréquent de le rencontrer.
